--- a/Final_data/Strumenti/Conf_matrix_QDA.xlsx
+++ b/Final_data/Strumenti/Conf_matrix_QDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CAE0F-A613-4CE1-B147-A0E1D2E37B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0D5DE-C0D0-47CC-A0E4-B88DF3DFA80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1410" windowWidth="16320" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="330" windowWidth="16770" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="A1370" sqref="A1370:D1440"/>
+    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
+      <selection activeCell="B1501" sqref="B1337:B1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="B1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
@@ -10362,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="B1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="B1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="B1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="B1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="B1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="B1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="B1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="B1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="B1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="B1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="B1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="B1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="B1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="B1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="B1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="B1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="B1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="B1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="B1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="B1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="B1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="B1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="B1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="B1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="B1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="B1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="B1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="B1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="B1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="B1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
@@ -10602,12 +10602,12 @@
         <v>0</v>
       </c>
       <c r="B1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1281">
         <v>0</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1282">
         <v>0</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1283">
         <v>0</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1284">
         <v>0</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1285">
         <v>0</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1286">
         <v>0</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1287">
         <v>0</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1288">
         <v>0</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1289">
         <v>0</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1290">
         <v>0</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1291">
         <v>0</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1292">
         <v>0</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1293">
         <v>0</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1294">
         <v>0</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1295">
         <v>0</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1296">
         <v>0</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1297">
         <v>0</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1298">
         <v>0</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1299">
         <v>0</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1300">
         <v>0</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1301">
         <v>0</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1302">
         <v>0</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1303">
         <v>0</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1304">
         <v>0</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1305">
         <v>0</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1306">
         <v>0</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1307">
         <v>0</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1308">
         <v>0</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1309">
         <v>0</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1310">
         <v>0</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1311">
         <v>0</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1312">
         <v>0</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1313">
         <v>0</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1314">
         <v>0</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1315">
         <v>0</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1316">
         <v>0</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1317">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1318">
         <v>0</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1319">
         <v>0</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1320">
         <v>0</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1321">
         <v>0</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1322">
         <v>0</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1323">
         <v>0</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1324">
         <v>0</v>
@@ -10959,7 +10959,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1325">
         <v>0</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1326">
         <v>0</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1327">
         <v>0</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1328">
         <v>0</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1329">
         <v>0</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1330">
         <v>0</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1331">
         <v>0</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1332">
         <v>0</v>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1333">
         <v>0</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1334">
         <v>0</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1335">
         <v>0</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1336">
         <v>0</v>
@@ -11055,31 +11055,31 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1340">
         <v>1</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1341">
         <v>1</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1342">
         <v>1</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1343">
         <v>1</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1344">
         <v>1</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1345">
         <v>1</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1346">
         <v>1</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1347">
         <v>1</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1348">
         <v>1</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1349">
         <v>1</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1350">
         <v>1</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1351">
         <v>1</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1352">
         <v>1</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1353">
         <v>1</v>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1354">
         <v>1</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1355">
         <v>1</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1356">
         <v>1</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1357">
         <v>1</v>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="B1358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="B1359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="B1360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="B1361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="B1362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="B1363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="B1364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="B1365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="B1366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="B1367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="B1368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="B1369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
